--- a/Bug sheet Greenlam WMS  24April.xlsx
+++ b/Bug sheet Greenlam WMS  24April.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECHFOUR\Documents\Bug Reports\Greanlam WMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jitendra\GIT\Test-Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summery" sheetId="1" r:id="rId1"/>
@@ -3075,6 +3075,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3139,24 +3157,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3530,7 +3530,7 @@
   </sheetPr>
   <dimension ref="A1:O995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -3648,13 +3648,13 @@
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="101"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="107"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -3667,13 +3667,13 @@
     <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="101"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="107"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -20537,7 +20537,7 @@
   </sheetPr>
   <dimension ref="A1:AC994"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -20565,30 +20565,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
@@ -20598,10 +20598,10 @@
       <c r="AC1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="107"/>
+      <c r="B2" s="113"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -20610,10 +20610,10 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="108" t="s">
+      <c r="I2" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="109"/>
+      <c r="J2" s="115"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -20635,10 +20635,10 @@
       <c r="AC2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="111"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="21" t="s">
         <v>5</v>
       </c>
@@ -20649,21 +20649,21 @@
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="113"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="119"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
-      <c r="O3" s="114" t="s">
+      <c r="O3" s="120" t="s">
         <v>165</v>
       </c>
-      <c r="P3" s="115"/>
+      <c r="P3" s="121"/>
       <c r="Q3" s="21"/>
-      <c r="R3" s="114" t="s">
+      <c r="R3" s="120" t="s">
         <v>212</v>
       </c>
-      <c r="S3" s="115"/>
+      <c r="S3" s="121"/>
       <c r="T3" s="21"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
@@ -26156,14 +26156,14 @@
       <c r="B99" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C99" s="124">
+      <c r="C99" s="101">
         <v>95</v>
       </c>
       <c r="D99" s="55"/>
       <c r="E99" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="F99" s="127" t="s">
+      <c r="F99" s="104" t="s">
         <v>81</v>
       </c>
       <c r="G99" s="55"/>
@@ -26200,7 +26200,7 @@
       <c r="AC99" s="13"/>
     </row>
     <row r="100" spans="1:29" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="125">
+      <c r="A100" s="102">
         <v>43945</v>
       </c>
       <c r="B100" s="91" t="s">
@@ -26209,7 +26209,7 @@
       <c r="C100" s="31">
         <v>96</v>
       </c>
-      <c r="D100" s="122">
+      <c r="D100" s="99">
         <v>10686</v>
       </c>
       <c r="E100" s="97" t="s">
@@ -26218,21 +26218,21 @@
       <c r="F100" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="G100" s="122"/>
-      <c r="H100" s="122"/>
-      <c r="I100" s="122" t="s">
+      <c r="G100" s="99"/>
+      <c r="H100" s="99"/>
+      <c r="I100" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="J100" s="122" t="s">
+      <c r="J100" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="K100" s="122" t="s">
+      <c r="K100" s="99" t="s">
         <v>309</v>
       </c>
-      <c r="L100" s="122" t="s">
+      <c r="L100" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="M100" s="122" t="s">
+      <c r="M100" s="99" t="s">
         <v>9</v>
       </c>
       <c r="N100" s="13"/>
@@ -26253,7 +26253,7 @@
       <c r="AC100" s="13"/>
     </row>
     <row r="101" spans="1:29" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="125">
+      <c r="A101" s="102">
         <v>43945</v>
       </c>
       <c r="B101" s="91" t="s">
@@ -26262,7 +26262,7 @@
       <c r="C101" s="31">
         <v>97</v>
       </c>
-      <c r="D101" s="122">
+      <c r="D101" s="99">
         <v>10686</v>
       </c>
       <c r="E101" s="97" t="s">
@@ -26271,21 +26271,21 @@
       <c r="F101" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="G101" s="122"/>
-      <c r="H101" s="122"/>
-      <c r="I101" s="122" t="s">
+      <c r="G101" s="99"/>
+      <c r="H101" s="99"/>
+      <c r="I101" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="J101" s="122" t="s">
+      <c r="J101" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="K101" s="122" t="s">
+      <c r="K101" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="L101" s="122" t="s">
+      <c r="L101" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="M101" s="122" t="s">
+      <c r="M101" s="99" t="s">
         <v>9</v>
       </c>
       <c r="N101" s="13"/>
@@ -26306,7 +26306,7 @@
       <c r="AC101" s="13"/>
     </row>
     <row r="102" spans="1:29" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="125">
+      <c r="A102" s="102">
         <v>43945</v>
       </c>
       <c r="B102" s="91" t="s">
@@ -26315,7 +26315,7 @@
       <c r="C102" s="31">
         <v>98</v>
       </c>
-      <c r="D102" s="122">
+      <c r="D102" s="99">
         <v>10686</v>
       </c>
       <c r="E102" s="98" t="s">
@@ -26324,21 +26324,21 @@
       <c r="F102" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="G102" s="122"/>
-      <c r="H102" s="122"/>
-      <c r="I102" s="122" t="s">
+      <c r="G102" s="99"/>
+      <c r="H102" s="99"/>
+      <c r="I102" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="J102" s="122" t="s">
+      <c r="J102" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="K102" s="122" t="s">
+      <c r="K102" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="L102" s="122" t="s">
+      <c r="L102" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="M102" s="122" t="s">
+      <c r="M102" s="99" t="s">
         <v>9</v>
       </c>
       <c r="N102" s="13"/>
@@ -26359,7 +26359,7 @@
       <c r="AC102" s="13"/>
     </row>
     <row r="103" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="125">
+      <c r="A103" s="102">
         <v>43945</v>
       </c>
       <c r="B103" s="91" t="s">
@@ -26368,7 +26368,7 @@
       <c r="C103" s="31">
         <v>99</v>
       </c>
-      <c r="D103" s="122">
+      <c r="D103" s="99">
         <v>10686</v>
       </c>
       <c r="E103" s="98" t="s">
@@ -26377,21 +26377,21 @@
       <c r="F103" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="G103" s="122"/>
-      <c r="H103" s="122"/>
-      <c r="I103" s="122" t="s">
+      <c r="G103" s="99"/>
+      <c r="H103" s="99"/>
+      <c r="I103" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="J103" s="122" t="s">
+      <c r="J103" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="K103" s="122" t="s">
+      <c r="K103" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="L103" s="122" t="s">
+      <c r="L103" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="M103" s="122" t="s">
+      <c r="M103" s="99" t="s">
         <v>9</v>
       </c>
       <c r="N103" s="13"/>
@@ -26412,7 +26412,7 @@
       <c r="AC103" s="13"/>
     </row>
     <row r="104" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="125">
+      <c r="A104" s="102">
         <v>43945</v>
       </c>
       <c r="B104" s="91" t="s">
@@ -26421,7 +26421,7 @@
       <c r="C104" s="31">
         <v>100</v>
       </c>
-      <c r="D104" s="122">
+      <c r="D104" s="99">
         <v>10686</v>
       </c>
       <c r="E104" s="98" t="s">
@@ -26430,21 +26430,21 @@
       <c r="F104" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="G104" s="122"/>
-      <c r="H104" s="122"/>
-      <c r="I104" s="122" t="s">
+      <c r="G104" s="99"/>
+      <c r="H104" s="99"/>
+      <c r="I104" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="J104" s="122" t="s">
+      <c r="J104" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="K104" s="122" t="s">
+      <c r="K104" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="L104" s="122" t="s">
+      <c r="L104" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="M104" s="122" t="s">
+      <c r="M104" s="99" t="s">
         <v>9</v>
       </c>
       <c r="N104" s="13"/>
@@ -26465,7 +26465,7 @@
       <c r="AC104" s="13"/>
     </row>
     <row r="105" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="125">
+      <c r="A105" s="102">
         <v>43945</v>
       </c>
       <c r="B105" s="91" t="s">
@@ -26474,7 +26474,7 @@
       <c r="C105" s="31">
         <v>101</v>
       </c>
-      <c r="D105" s="122">
+      <c r="D105" s="99">
         <v>10686</v>
       </c>
       <c r="E105" s="97" t="s">
@@ -26483,21 +26483,21 @@
       <c r="F105" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="G105" s="122"/>
-      <c r="H105" s="122"/>
-      <c r="I105" s="122" t="s">
+      <c r="G105" s="99"/>
+      <c r="H105" s="99"/>
+      <c r="I105" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="J105" s="122" t="s">
+      <c r="J105" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="K105" s="122" t="s">
+      <c r="K105" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="L105" s="122" t="s">
+      <c r="L105" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="M105" s="122" t="s">
+      <c r="M105" s="99" t="s">
         <v>9</v>
       </c>
       <c r="N105" s="13"/>
@@ -26518,7 +26518,7 @@
       <c r="AC105" s="13"/>
     </row>
     <row r="106" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="125">
+      <c r="A106" s="102">
         <v>43945</v>
       </c>
       <c r="B106" s="91" t="s">
@@ -26527,30 +26527,30 @@
       <c r="C106" s="31">
         <v>102</v>
       </c>
-      <c r="D106" s="122">
+      <c r="D106" s="99">
         <v>10686</v>
       </c>
-      <c r="E106" s="122" t="s">
+      <c r="E106" s="99" t="s">
         <v>310</v>
       </c>
       <c r="F106" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="G106" s="122"/>
-      <c r="H106" s="122"/>
-      <c r="I106" s="122" t="s">
+      <c r="G106" s="99"/>
+      <c r="H106" s="99"/>
+      <c r="I106" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="J106" s="122" t="s">
+      <c r="J106" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="K106" s="122" t="s">
+      <c r="K106" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="L106" s="122" t="s">
+      <c r="L106" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="M106" s="122" t="s">
+      <c r="M106" s="99" t="s">
         <v>9</v>
       </c>
       <c r="N106" s="13"/>
@@ -26571,7 +26571,7 @@
       <c r="AC106" s="13"/>
     </row>
     <row r="107" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="125">
+      <c r="A107" s="102">
         <v>43945</v>
       </c>
       <c r="B107" s="91" t="s">
@@ -26580,30 +26580,30 @@
       <c r="C107" s="31">
         <v>103</v>
       </c>
-      <c r="D107" s="122">
+      <c r="D107" s="99">
         <v>10686</v>
       </c>
-      <c r="E107" s="122" t="s">
+      <c r="E107" s="99" t="s">
         <v>313</v>
       </c>
       <c r="F107" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="G107" s="122"/>
-      <c r="H107" s="122"/>
-      <c r="I107" s="122" t="s">
+      <c r="G107" s="99"/>
+      <c r="H107" s="99"/>
+      <c r="I107" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="J107" s="122" t="s">
+      <c r="J107" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="K107" s="122" t="s">
+      <c r="K107" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="L107" s="122" t="s">
+      <c r="L107" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="M107" s="122" t="s">
+      <c r="M107" s="99" t="s">
         <v>9</v>
       </c>
       <c r="N107" s="13"/>
@@ -26624,7 +26624,7 @@
       <c r="AC107" s="13"/>
     </row>
     <row r="108" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="125">
+      <c r="A108" s="102">
         <v>43945</v>
       </c>
       <c r="B108" s="91" t="s">
@@ -26633,7 +26633,7 @@
       <c r="C108" s="31">
         <v>104</v>
       </c>
-      <c r="D108" s="122">
+      <c r="D108" s="99">
         <v>10686</v>
       </c>
       <c r="E108" s="98" t="s">
@@ -26642,21 +26642,21 @@
       <c r="F108" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="G108" s="122"/>
-      <c r="H108" s="122"/>
-      <c r="I108" s="122" t="s">
+      <c r="G108" s="99"/>
+      <c r="H108" s="99"/>
+      <c r="I108" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="J108" s="122" t="s">
+      <c r="J108" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="K108" s="122" t="s">
+      <c r="K108" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="L108" s="122" t="s">
+      <c r="L108" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="M108" s="122" t="s">
+      <c r="M108" s="99" t="s">
         <v>9</v>
       </c>
       <c r="N108" s="13"/>
@@ -26677,7 +26677,7 @@
       <c r="AC108" s="13"/>
     </row>
     <row r="109" spans="1:29" s="98" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="125">
+      <c r="A109" s="102">
         <v>43945</v>
       </c>
       <c r="B109" s="91" t="s">
@@ -26686,51 +26686,51 @@
       <c r="C109" s="31">
         <v>105</v>
       </c>
-      <c r="D109" s="122">
+      <c r="D109" s="99">
         <v>10686</v>
       </c>
-      <c r="E109" s="122" t="s">
+      <c r="E109" s="99" t="s">
         <v>315</v>
       </c>
       <c r="F109" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="G109" s="122"/>
-      <c r="H109" s="122"/>
-      <c r="I109" s="122" t="s">
+      <c r="G109" s="99"/>
+      <c r="H109" s="99"/>
+      <c r="I109" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="J109" s="122" t="s">
+      <c r="J109" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="K109" s="122" t="s">
+      <c r="K109" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="L109" s="122" t="s">
+      <c r="L109" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="M109" s="122" t="s">
+      <c r="M109" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="N109" s="126"/>
-      <c r="O109" s="122"/>
-      <c r="P109" s="122"/>
-      <c r="Q109" s="122"/>
-      <c r="R109" s="122"/>
-      <c r="S109" s="122"/>
-      <c r="T109" s="122"/>
-      <c r="U109" s="122"/>
-      <c r="V109" s="122"/>
-      <c r="W109" s="122"/>
-      <c r="X109" s="122"/>
-      <c r="Y109" s="122"/>
-      <c r="Z109" s="122"/>
-      <c r="AA109" s="122"/>
-      <c r="AB109" s="122"/>
-      <c r="AC109" s="122"/>
+      <c r="N109" s="103"/>
+      <c r="O109" s="99"/>
+      <c r="P109" s="99"/>
+      <c r="Q109" s="99"/>
+      <c r="R109" s="99"/>
+      <c r="S109" s="99"/>
+      <c r="T109" s="99"/>
+      <c r="U109" s="99"/>
+      <c r="V109" s="99"/>
+      <c r="W109" s="99"/>
+      <c r="X109" s="99"/>
+      <c r="Y109" s="99"/>
+      <c r="Z109" s="99"/>
+      <c r="AA109" s="99"/>
+      <c r="AB109" s="99"/>
+      <c r="AC109" s="99"/>
     </row>
     <row r="110" spans="1:29" s="98" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="125">
+      <c r="A110" s="102">
         <v>43945</v>
       </c>
       <c r="B110" s="91" t="s">
@@ -26739,83 +26739,83 @@
       <c r="C110" s="31">
         <v>106</v>
       </c>
-      <c r="D110" s="122">
+      <c r="D110" s="99">
         <v>10686</v>
       </c>
-      <c r="E110" s="122" t="s">
+      <c r="E110" s="99" t="s">
         <v>316</v>
       </c>
       <c r="F110" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="G110" s="122"/>
-      <c r="H110" s="122"/>
-      <c r="I110" s="122" t="s">
+      <c r="G110" s="99"/>
+      <c r="H110" s="99"/>
+      <c r="I110" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="J110" s="122" t="s">
+      <c r="J110" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="K110" s="122" t="s">
+      <c r="K110" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="L110" s="122" t="s">
+      <c r="L110" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="M110" s="122" t="s">
+      <c r="M110" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="N110" s="126"/>
-      <c r="O110" s="122"/>
-      <c r="P110" s="122"/>
-      <c r="Q110" s="122"/>
-      <c r="R110" s="122"/>
-      <c r="S110" s="122"/>
-      <c r="T110" s="122"/>
-      <c r="U110" s="122"/>
-      <c r="V110" s="122"/>
-      <c r="W110" s="122"/>
-      <c r="X110" s="122"/>
-      <c r="Y110" s="122"/>
-      <c r="Z110" s="122"/>
-      <c r="AA110" s="122"/>
-      <c r="AB110" s="122"/>
-      <c r="AC110" s="122"/>
+      <c r="N110" s="103"/>
+      <c r="O110" s="99"/>
+      <c r="P110" s="99"/>
+      <c r="Q110" s="99"/>
+      <c r="R110" s="99"/>
+      <c r="S110" s="99"/>
+      <c r="T110" s="99"/>
+      <c r="U110" s="99"/>
+      <c r="V110" s="99"/>
+      <c r="W110" s="99"/>
+      <c r="X110" s="99"/>
+      <c r="Y110" s="99"/>
+      <c r="Z110" s="99"/>
+      <c r="AA110" s="99"/>
+      <c r="AB110" s="99"/>
+      <c r="AC110" s="99"/>
     </row>
     <row r="111" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="125">
+      <c r="A111" s="102">
         <v>43945</v>
       </c>
       <c r="B111" s="91" t="s">
         <v>251</v>
       </c>
-      <c r="C111" s="122">
+      <c r="C111" s="99">
         <v>107</v>
       </c>
-      <c r="D111" s="122">
+      <c r="D111" s="99">
         <v>10686</v>
       </c>
-      <c r="E111" s="122" t="s">
+      <c r="E111" s="99" t="s">
         <v>317</v>
       </c>
       <c r="F111" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="G111" s="122"/>
-      <c r="H111" s="122"/>
-      <c r="I111" s="122" t="s">
+      <c r="G111" s="99"/>
+      <c r="H111" s="99"/>
+      <c r="I111" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="J111" s="122" t="s">
+      <c r="J111" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="K111" s="122" t="s">
+      <c r="K111" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="L111" s="122" t="s">
+      <c r="L111" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="M111" s="122" t="s">
+      <c r="M111" s="99" t="s">
         <v>9</v>
       </c>
       <c r="N111" s="13"/>
@@ -26836,16 +26836,16 @@
       <c r="AC111" s="13"/>
     </row>
     <row r="112" spans="1:29" s="98" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="125">
+      <c r="A112" s="102">
         <v>43945</v>
       </c>
       <c r="B112" s="91" t="s">
         <v>326</v>
       </c>
-      <c r="C112" s="122">
+      <c r="C112" s="99">
         <v>108</v>
       </c>
-      <c r="D112" s="122">
+      <c r="D112" s="99">
         <v>10686</v>
       </c>
       <c r="E112" s="97" t="s">
@@ -26854,72 +26854,72 @@
       <c r="F112" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="G112" s="122"/>
-      <c r="H112" s="122"/>
-      <c r="I112" s="122" t="s">
+      <c r="G112" s="99"/>
+      <c r="H112" s="99"/>
+      <c r="I112" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="J112" s="122" t="s">
+      <c r="J112" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="K112" s="122" t="s">
+      <c r="K112" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="L112" s="122" t="s">
+      <c r="L112" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="M112" s="122" t="s">
+      <c r="M112" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="N112" s="126"/>
-      <c r="O112" s="122"/>
-      <c r="P112" s="122"/>
-      <c r="Q112" s="122"/>
-      <c r="R112" s="122"/>
-      <c r="S112" s="122"/>
-      <c r="T112" s="122"/>
-      <c r="U112" s="122"/>
-      <c r="V112" s="122"/>
-      <c r="W112" s="122"/>
-      <c r="X112" s="122"/>
-      <c r="Y112" s="122"/>
-      <c r="Z112" s="122"/>
-      <c r="AA112" s="122"/>
-      <c r="AB112" s="122"/>
-      <c r="AC112" s="122"/>
+      <c r="N112" s="103"/>
+      <c r="O112" s="99"/>
+      <c r="P112" s="99"/>
+      <c r="Q112" s="99"/>
+      <c r="R112" s="99"/>
+      <c r="S112" s="99"/>
+      <c r="T112" s="99"/>
+      <c r="U112" s="99"/>
+      <c r="V112" s="99"/>
+      <c r="W112" s="99"/>
+      <c r="X112" s="99"/>
+      <c r="Y112" s="99"/>
+      <c r="Z112" s="99"/>
+      <c r="AA112" s="99"/>
+      <c r="AB112" s="99"/>
+      <c r="AC112" s="99"/>
     </row>
     <row r="113" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="125">
+      <c r="A113" s="102">
         <v>43945</v>
       </c>
       <c r="B113" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="C113" s="122">
+      <c r="C113" s="99">
         <v>109</v>
       </c>
-      <c r="D113" s="122">
+      <c r="D113" s="99">
         <v>10686</v>
       </c>
-      <c r="E113" s="122" t="s">
+      <c r="E113" s="99" t="s">
         <v>319</v>
       </c>
-      <c r="F113" s="122"/>
-      <c r="G113" s="122"/>
-      <c r="H113" s="122"/>
-      <c r="I113" s="122" t="s">
+      <c r="F113" s="99"/>
+      <c r="G113" s="99"/>
+      <c r="H113" s="99"/>
+      <c r="I113" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="J113" s="122" t="s">
+      <c r="J113" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="K113" s="122" t="s">
+      <c r="K113" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="L113" s="122" t="s">
+      <c r="L113" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="M113" s="122" t="s">
+      <c r="M113" s="99" t="s">
         <v>9</v>
       </c>
       <c r="N113" s="13"/>
@@ -26940,23 +26940,23 @@
       <c r="AC113" s="13"/>
     </row>
     <row r="114" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="125">
+      <c r="A114" s="102">
         <v>43945</v>
       </c>
       <c r="B114" s="91"/>
-      <c r="C114" s="122"/>
-      <c r="D114" s="122">
+      <c r="C114" s="99"/>
+      <c r="D114" s="99">
         <v>10686</v>
       </c>
-      <c r="E114" s="122"/>
-      <c r="F114" s="122"/>
-      <c r="G114" s="122"/>
-      <c r="H114" s="122"/>
-      <c r="I114" s="122"/>
-      <c r="J114" s="122"/>
-      <c r="K114" s="122"/>
-      <c r="L114" s="122"/>
-      <c r="M114" s="122"/>
+      <c r="E114" s="99"/>
+      <c r="F114" s="99"/>
+      <c r="G114" s="99"/>
+      <c r="H114" s="99"/>
+      <c r="I114" s="99"/>
+      <c r="J114" s="99"/>
+      <c r="K114" s="99"/>
+      <c r="L114" s="99"/>
+      <c r="M114" s="99"/>
       <c r="N114" s="13"/>
       <c r="O114" s="13"/>
       <c r="P114" s="13"/>
@@ -26975,21 +26975,21 @@
       <c r="AC114" s="13"/>
     </row>
     <row r="115" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="125">
+      <c r="A115" s="102">
         <v>43945</v>
       </c>
       <c r="B115" s="91"/>
-      <c r="C115" s="122"/>
-      <c r="D115" s="122"/>
-      <c r="E115" s="122"/>
-      <c r="F115" s="122"/>
-      <c r="G115" s="122"/>
-      <c r="H115" s="122"/>
-      <c r="I115" s="122"/>
-      <c r="J115" s="122"/>
-      <c r="K115" s="122"/>
-      <c r="L115" s="122"/>
-      <c r="M115" s="122"/>
+      <c r="C115" s="99"/>
+      <c r="D115" s="99"/>
+      <c r="E115" s="99"/>
+      <c r="F115" s="99"/>
+      <c r="G115" s="99"/>
+      <c r="H115" s="99"/>
+      <c r="I115" s="99"/>
+      <c r="J115" s="99"/>
+      <c r="K115" s="99"/>
+      <c r="L115" s="99"/>
+      <c r="M115" s="99"/>
       <c r="N115" s="13"/>
       <c r="O115" s="13"/>
       <c r="P115" s="13"/>
@@ -27008,21 +27008,21 @@
       <c r="AC115" s="13"/>
     </row>
     <row r="116" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="125">
+      <c r="A116" s="102">
         <v>43945</v>
       </c>
       <c r="B116" s="91"/>
-      <c r="C116" s="122"/>
-      <c r="D116" s="122"/>
-      <c r="E116" s="122"/>
-      <c r="F116" s="122"/>
-      <c r="G116" s="122"/>
-      <c r="H116" s="122"/>
-      <c r="I116" s="122"/>
-      <c r="J116" s="122"/>
-      <c r="K116" s="122"/>
-      <c r="L116" s="122"/>
-      <c r="M116" s="122"/>
+      <c r="C116" s="99"/>
+      <c r="D116" s="99"/>
+      <c r="E116" s="99"/>
+      <c r="F116" s="99"/>
+      <c r="G116" s="99"/>
+      <c r="H116" s="99"/>
+      <c r="I116" s="99"/>
+      <c r="J116" s="99"/>
+      <c r="K116" s="99"/>
+      <c r="L116" s="99"/>
+      <c r="M116" s="99"/>
       <c r="N116" s="13"/>
       <c r="O116" s="13"/>
       <c r="P116" s="13"/>
@@ -27041,21 +27041,21 @@
       <c r="AC116" s="13"/>
     </row>
     <row r="117" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="125">
+      <c r="A117" s="102">
         <v>43945</v>
       </c>
       <c r="B117" s="91"/>
-      <c r="C117" s="122"/>
-      <c r="D117" s="122"/>
-      <c r="E117" s="122"/>
-      <c r="F117" s="122"/>
-      <c r="G117" s="122"/>
-      <c r="H117" s="122"/>
-      <c r="I117" s="122"/>
-      <c r="J117" s="122"/>
-      <c r="K117" s="122"/>
-      <c r="L117" s="122"/>
-      <c r="M117" s="122"/>
+      <c r="C117" s="99"/>
+      <c r="D117" s="99"/>
+      <c r="E117" s="99"/>
+      <c r="F117" s="99"/>
+      <c r="G117" s="99"/>
+      <c r="H117" s="99"/>
+      <c r="I117" s="99"/>
+      <c r="J117" s="99"/>
+      <c r="K117" s="99"/>
+      <c r="L117" s="99"/>
+      <c r="M117" s="99"/>
       <c r="N117" s="13"/>
       <c r="O117" s="13"/>
       <c r="P117" s="13"/>
@@ -27074,21 +27074,21 @@
       <c r="AC117" s="13"/>
     </row>
     <row r="118" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="125">
+      <c r="A118" s="102">
         <v>43945</v>
       </c>
       <c r="B118" s="91"/>
-      <c r="C118" s="122"/>
-      <c r="D118" s="122"/>
-      <c r="E118" s="122"/>
-      <c r="F118" s="122"/>
-      <c r="G118" s="122"/>
-      <c r="H118" s="122"/>
-      <c r="I118" s="122"/>
-      <c r="J118" s="122"/>
-      <c r="K118" s="122"/>
-      <c r="L118" s="122"/>
-      <c r="M118" s="122"/>
+      <c r="C118" s="99"/>
+      <c r="D118" s="99"/>
+      <c r="E118" s="99"/>
+      <c r="F118" s="99"/>
+      <c r="G118" s="99"/>
+      <c r="H118" s="99"/>
+      <c r="I118" s="99"/>
+      <c r="J118" s="99"/>
+      <c r="K118" s="99"/>
+      <c r="L118" s="99"/>
+      <c r="M118" s="99"/>
       <c r="N118" s="13"/>
       <c r="O118" s="13"/>
       <c r="P118" s="13"/>
@@ -27107,21 +27107,21 @@
       <c r="AC118" s="13"/>
     </row>
     <row r="119" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="125">
+      <c r="A119" s="102">
         <v>43945</v>
       </c>
       <c r="B119" s="91"/>
-      <c r="C119" s="122"/>
-      <c r="D119" s="122"/>
-      <c r="E119" s="122"/>
-      <c r="F119" s="122"/>
-      <c r="G119" s="122"/>
-      <c r="H119" s="122"/>
-      <c r="I119" s="122"/>
-      <c r="J119" s="122"/>
-      <c r="K119" s="122"/>
-      <c r="L119" s="122"/>
-      <c r="M119" s="122"/>
+      <c r="C119" s="99"/>
+      <c r="D119" s="99"/>
+      <c r="E119" s="99"/>
+      <c r="F119" s="99"/>
+      <c r="G119" s="99"/>
+      <c r="H119" s="99"/>
+      <c r="I119" s="99"/>
+      <c r="J119" s="99"/>
+      <c r="K119" s="99"/>
+      <c r="L119" s="99"/>
+      <c r="M119" s="99"/>
       <c r="N119" s="13"/>
       <c r="O119" s="13"/>
       <c r="P119" s="13"/>
@@ -27140,21 +27140,21 @@
       <c r="AC119" s="13"/>
     </row>
     <row r="120" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="125">
+      <c r="A120" s="102">
         <v>43945</v>
       </c>
-      <c r="B120" s="122"/>
-      <c r="C120" s="122"/>
-      <c r="D120" s="122"/>
-      <c r="E120" s="122"/>
-      <c r="F120" s="122"/>
-      <c r="G120" s="122"/>
-      <c r="H120" s="122"/>
-      <c r="I120" s="122"/>
-      <c r="J120" s="122"/>
-      <c r="K120" s="122"/>
-      <c r="L120" s="122"/>
-      <c r="M120" s="122"/>
+      <c r="B120" s="99"/>
+      <c r="C120" s="99"/>
+      <c r="D120" s="99"/>
+      <c r="E120" s="99"/>
+      <c r="F120" s="99"/>
+      <c r="G120" s="99"/>
+      <c r="H120" s="99"/>
+      <c r="I120" s="99"/>
+      <c r="J120" s="99"/>
+      <c r="K120" s="99"/>
+      <c r="L120" s="99"/>
+      <c r="M120" s="99"/>
       <c r="N120" s="13"/>
       <c r="O120" s="13"/>
       <c r="P120" s="13"/>
@@ -27173,21 +27173,21 @@
       <c r="AC120" s="13"/>
     </row>
     <row r="121" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="125">
+      <c r="A121" s="102">
         <v>43945</v>
       </c>
-      <c r="B121" s="122"/>
-      <c r="C121" s="122"/>
-      <c r="D121" s="122"/>
-      <c r="E121" s="122"/>
-      <c r="F121" s="122"/>
-      <c r="G121" s="122"/>
-      <c r="H121" s="122"/>
-      <c r="I121" s="122"/>
-      <c r="J121" s="122"/>
-      <c r="K121" s="122"/>
-      <c r="L121" s="122"/>
-      <c r="M121" s="122"/>
+      <c r="B121" s="99"/>
+      <c r="C121" s="99"/>
+      <c r="D121" s="99"/>
+      <c r="E121" s="99"/>
+      <c r="F121" s="99"/>
+      <c r="G121" s="99"/>
+      <c r="H121" s="99"/>
+      <c r="I121" s="99"/>
+      <c r="J121" s="99"/>
+      <c r="K121" s="99"/>
+      <c r="L121" s="99"/>
+      <c r="M121" s="99"/>
       <c r="N121" s="13"/>
       <c r="O121" s="13"/>
       <c r="P121" s="13"/>
@@ -27206,21 +27206,21 @@
       <c r="AC121" s="13"/>
     </row>
     <row r="122" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="125">
+      <c r="A122" s="102">
         <v>43945</v>
       </c>
-      <c r="B122" s="122"/>
-      <c r="C122" s="122"/>
-      <c r="D122" s="122"/>
-      <c r="E122" s="122"/>
-      <c r="F122" s="122"/>
-      <c r="G122" s="122"/>
-      <c r="H122" s="122"/>
-      <c r="I122" s="122"/>
-      <c r="J122" s="122"/>
-      <c r="K122" s="122"/>
-      <c r="L122" s="122"/>
-      <c r="M122" s="122"/>
+      <c r="B122" s="99"/>
+      <c r="C122" s="99"/>
+      <c r="D122" s="99"/>
+      <c r="E122" s="99"/>
+      <c r="F122" s="99"/>
+      <c r="G122" s="99"/>
+      <c r="H122" s="99"/>
+      <c r="I122" s="99"/>
+      <c r="J122" s="99"/>
+      <c r="K122" s="99"/>
+      <c r="L122" s="99"/>
+      <c r="M122" s="99"/>
       <c r="N122" s="13"/>
       <c r="O122" s="13"/>
       <c r="P122" s="13"/>
@@ -27239,21 +27239,21 @@
       <c r="AC122" s="13"/>
     </row>
     <row r="123" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="125">
+      <c r="A123" s="102">
         <v>43945</v>
       </c>
-      <c r="B123" s="122"/>
-      <c r="C123" s="122"/>
-      <c r="D123" s="122"/>
-      <c r="E123" s="122"/>
-      <c r="F123" s="122"/>
-      <c r="G123" s="122"/>
-      <c r="H123" s="122"/>
-      <c r="I123" s="122"/>
-      <c r="J123" s="122"/>
-      <c r="K123" s="122"/>
-      <c r="L123" s="122"/>
-      <c r="M123" s="122"/>
+      <c r="B123" s="99"/>
+      <c r="C123" s="99"/>
+      <c r="D123" s="99"/>
+      <c r="E123" s="99"/>
+      <c r="F123" s="99"/>
+      <c r="G123" s="99"/>
+      <c r="H123" s="99"/>
+      <c r="I123" s="99"/>
+      <c r="J123" s="99"/>
+      <c r="K123" s="99"/>
+      <c r="L123" s="99"/>
+      <c r="M123" s="99"/>
       <c r="N123" s="13"/>
       <c r="O123" s="13"/>
       <c r="P123" s="13"/>
@@ -27272,21 +27272,21 @@
       <c r="AC123" s="13"/>
     </row>
     <row r="124" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="125">
+      <c r="A124" s="102">
         <v>43945</v>
       </c>
-      <c r="B124" s="122"/>
-      <c r="C124" s="122"/>
-      <c r="D124" s="122"/>
-      <c r="E124" s="122"/>
-      <c r="F124" s="122"/>
-      <c r="G124" s="122"/>
-      <c r="H124" s="122"/>
-      <c r="I124" s="122"/>
-      <c r="J124" s="122"/>
-      <c r="K124" s="122"/>
-      <c r="L124" s="122"/>
-      <c r="M124" s="122"/>
+      <c r="B124" s="99"/>
+      <c r="C124" s="99"/>
+      <c r="D124" s="99"/>
+      <c r="E124" s="99"/>
+      <c r="F124" s="99"/>
+      <c r="G124" s="99"/>
+      <c r="H124" s="99"/>
+      <c r="I124" s="99"/>
+      <c r="J124" s="99"/>
+      <c r="K124" s="99"/>
+      <c r="L124" s="99"/>
+      <c r="M124" s="99"/>
       <c r="N124" s="13"/>
       <c r="O124" s="13"/>
       <c r="P124" s="13"/>
@@ -27305,21 +27305,21 @@
       <c r="AC124" s="13"/>
     </row>
     <row r="125" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="125">
+      <c r="A125" s="102">
         <v>43945</v>
       </c>
-      <c r="B125" s="122"/>
-      <c r="C125" s="122"/>
-      <c r="D125" s="122"/>
-      <c r="E125" s="122"/>
-      <c r="F125" s="122"/>
-      <c r="G125" s="122"/>
-      <c r="H125" s="122"/>
-      <c r="I125" s="122"/>
-      <c r="J125" s="122"/>
-      <c r="K125" s="122"/>
-      <c r="L125" s="122"/>
-      <c r="M125" s="122"/>
+      <c r="B125" s="99"/>
+      <c r="C125" s="99"/>
+      <c r="D125" s="99"/>
+      <c r="E125" s="99"/>
+      <c r="F125" s="99"/>
+      <c r="G125" s="99"/>
+      <c r="H125" s="99"/>
+      <c r="I125" s="99"/>
+      <c r="J125" s="99"/>
+      <c r="K125" s="99"/>
+      <c r="L125" s="99"/>
+      <c r="M125" s="99"/>
       <c r="N125" s="13"/>
       <c r="O125" s="13"/>
       <c r="P125" s="13"/>
@@ -27338,21 +27338,21 @@
       <c r="AC125" s="13"/>
     </row>
     <row r="126" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="125">
+      <c r="A126" s="102">
         <v>43945</v>
       </c>
-      <c r="B126" s="122"/>
-      <c r="C126" s="122"/>
-      <c r="D126" s="122"/>
-      <c r="E126" s="122"/>
-      <c r="F126" s="122"/>
-      <c r="G126" s="122"/>
-      <c r="H126" s="122"/>
-      <c r="I126" s="122"/>
-      <c r="J126" s="122"/>
-      <c r="K126" s="122"/>
-      <c r="L126" s="122"/>
-      <c r="M126" s="122"/>
+      <c r="B126" s="99"/>
+      <c r="C126" s="99"/>
+      <c r="D126" s="99"/>
+      <c r="E126" s="99"/>
+      <c r="F126" s="99"/>
+      <c r="G126" s="99"/>
+      <c r="H126" s="99"/>
+      <c r="I126" s="99"/>
+      <c r="J126" s="99"/>
+      <c r="K126" s="99"/>
+      <c r="L126" s="99"/>
+      <c r="M126" s="99"/>
       <c r="N126" s="13"/>
       <c r="O126" s="13"/>
       <c r="P126" s="13"/>
@@ -27371,21 +27371,21 @@
       <c r="AC126" s="13"/>
     </row>
     <row r="127" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="125">
+      <c r="A127" s="102">
         <v>43945</v>
       </c>
-      <c r="B127" s="122"/>
-      <c r="C127" s="122"/>
-      <c r="D127" s="122"/>
-      <c r="E127" s="122"/>
-      <c r="F127" s="122"/>
-      <c r="G127" s="122"/>
-      <c r="H127" s="122"/>
-      <c r="I127" s="122"/>
-      <c r="J127" s="122"/>
-      <c r="K127" s="122"/>
-      <c r="L127" s="122"/>
-      <c r="M127" s="122"/>
+      <c r="B127" s="99"/>
+      <c r="C127" s="99"/>
+      <c r="D127" s="99"/>
+      <c r="E127" s="99"/>
+      <c r="F127" s="99"/>
+      <c r="G127" s="99"/>
+      <c r="H127" s="99"/>
+      <c r="I127" s="99"/>
+      <c r="J127" s="99"/>
+      <c r="K127" s="99"/>
+      <c r="L127" s="99"/>
+      <c r="M127" s="99"/>
       <c r="N127" s="13"/>
       <c r="O127" s="13"/>
       <c r="P127" s="13"/>
@@ -27404,21 +27404,21 @@
       <c r="AC127" s="13"/>
     </row>
     <row r="128" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="125">
+      <c r="A128" s="102">
         <v>43945</v>
       </c>
-      <c r="B128" s="122"/>
-      <c r="C128" s="122"/>
-      <c r="D128" s="122"/>
-      <c r="E128" s="122"/>
-      <c r="F128" s="122"/>
-      <c r="G128" s="122"/>
-      <c r="H128" s="122"/>
-      <c r="I128" s="122"/>
-      <c r="J128" s="122"/>
-      <c r="K128" s="122"/>
-      <c r="L128" s="122"/>
-      <c r="M128" s="122"/>
+      <c r="B128" s="99"/>
+      <c r="C128" s="99"/>
+      <c r="D128" s="99"/>
+      <c r="E128" s="99"/>
+      <c r="F128" s="99"/>
+      <c r="G128" s="99"/>
+      <c r="H128" s="99"/>
+      <c r="I128" s="99"/>
+      <c r="J128" s="99"/>
+      <c r="K128" s="99"/>
+      <c r="L128" s="99"/>
+      <c r="M128" s="99"/>
       <c r="N128" s="13"/>
       <c r="O128" s="13"/>
       <c r="P128" s="13"/>
@@ -27437,21 +27437,21 @@
       <c r="AC128" s="13"/>
     </row>
     <row r="129" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="125">
+      <c r="A129" s="102">
         <v>43945</v>
       </c>
-      <c r="B129" s="122"/>
-      <c r="C129" s="122"/>
-      <c r="D129" s="122"/>
-      <c r="E129" s="122"/>
-      <c r="F129" s="122"/>
-      <c r="G129" s="122"/>
-      <c r="H129" s="122"/>
-      <c r="I129" s="122"/>
-      <c r="J129" s="122"/>
-      <c r="K129" s="122"/>
-      <c r="L129" s="122"/>
-      <c r="M129" s="122"/>
+      <c r="B129" s="99"/>
+      <c r="C129" s="99"/>
+      <c r="D129" s="99"/>
+      <c r="E129" s="99"/>
+      <c r="F129" s="99"/>
+      <c r="G129" s="99"/>
+      <c r="H129" s="99"/>
+      <c r="I129" s="99"/>
+      <c r="J129" s="99"/>
+      <c r="K129" s="99"/>
+      <c r="L129" s="99"/>
+      <c r="M129" s="99"/>
       <c r="N129" s="13"/>
       <c r="O129" s="13"/>
       <c r="P129" s="13"/>
@@ -27470,21 +27470,21 @@
       <c r="AC129" s="13"/>
     </row>
     <row r="130" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="125">
+      <c r="A130" s="102">
         <v>43945</v>
       </c>
-      <c r="B130" s="122"/>
-      <c r="C130" s="122"/>
-      <c r="D130" s="122"/>
-      <c r="E130" s="122"/>
-      <c r="F130" s="122"/>
-      <c r="G130" s="122"/>
-      <c r="H130" s="122"/>
-      <c r="I130" s="122"/>
-      <c r="J130" s="122"/>
-      <c r="K130" s="122"/>
-      <c r="L130" s="122"/>
-      <c r="M130" s="122"/>
+      <c r="B130" s="99"/>
+      <c r="C130" s="99"/>
+      <c r="D130" s="99"/>
+      <c r="E130" s="99"/>
+      <c r="F130" s="99"/>
+      <c r="G130" s="99"/>
+      <c r="H130" s="99"/>
+      <c r="I130" s="99"/>
+      <c r="J130" s="99"/>
+      <c r="K130" s="99"/>
+      <c r="L130" s="99"/>
+      <c r="M130" s="99"/>
       <c r="N130" s="13"/>
       <c r="O130" s="13"/>
       <c r="P130" s="13"/>
@@ -27503,21 +27503,21 @@
       <c r="AC130" s="13"/>
     </row>
     <row r="131" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="125">
+      <c r="A131" s="102">
         <v>43945</v>
       </c>
-      <c r="B131" s="122"/>
-      <c r="C131" s="122"/>
-      <c r="D131" s="122"/>
-      <c r="E131" s="122"/>
-      <c r="F131" s="122"/>
-      <c r="G131" s="122"/>
-      <c r="H131" s="122"/>
-      <c r="I131" s="122"/>
-      <c r="J131" s="122"/>
-      <c r="K131" s="122"/>
-      <c r="L131" s="122"/>
-      <c r="M131" s="122"/>
+      <c r="B131" s="99"/>
+      <c r="C131" s="99"/>
+      <c r="D131" s="99"/>
+      <c r="E131" s="99"/>
+      <c r="F131" s="99"/>
+      <c r="G131" s="99"/>
+      <c r="H131" s="99"/>
+      <c r="I131" s="99"/>
+      <c r="J131" s="99"/>
+      <c r="K131" s="99"/>
+      <c r="L131" s="99"/>
+      <c r="M131" s="99"/>
       <c r="N131" s="13"/>
       <c r="O131" s="13"/>
       <c r="P131" s="13"/>
@@ -27536,21 +27536,21 @@
       <c r="AC131" s="13"/>
     </row>
     <row r="132" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="125">
+      <c r="A132" s="102">
         <v>43945</v>
       </c>
-      <c r="B132" s="122"/>
-      <c r="C132" s="122"/>
-      <c r="D132" s="122"/>
-      <c r="E132" s="122"/>
-      <c r="F132" s="122"/>
-      <c r="G132" s="122"/>
-      <c r="H132" s="122"/>
-      <c r="I132" s="122"/>
-      <c r="J132" s="122"/>
-      <c r="K132" s="122"/>
-      <c r="L132" s="122"/>
-      <c r="M132" s="122"/>
+      <c r="B132" s="99"/>
+      <c r="C132" s="99"/>
+      <c r="D132" s="99"/>
+      <c r="E132" s="99"/>
+      <c r="F132" s="99"/>
+      <c r="G132" s="99"/>
+      <c r="H132" s="99"/>
+      <c r="I132" s="99"/>
+      <c r="J132" s="99"/>
+      <c r="K132" s="99"/>
+      <c r="L132" s="99"/>
+      <c r="M132" s="99"/>
       <c r="N132" s="13"/>
       <c r="O132" s="13"/>
       <c r="P132" s="13"/>
@@ -27569,21 +27569,21 @@
       <c r="AC132" s="13"/>
     </row>
     <row r="133" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="125">
+      <c r="A133" s="102">
         <v>43945</v>
       </c>
-      <c r="B133" s="122"/>
-      <c r="C133" s="122"/>
-      <c r="D133" s="122"/>
-      <c r="E133" s="122"/>
-      <c r="F133" s="122"/>
-      <c r="G133" s="122"/>
-      <c r="H133" s="122"/>
-      <c r="I133" s="122"/>
-      <c r="J133" s="122"/>
-      <c r="K133" s="122"/>
-      <c r="L133" s="122"/>
-      <c r="M133" s="122"/>
+      <c r="B133" s="99"/>
+      <c r="C133" s="99"/>
+      <c r="D133" s="99"/>
+      <c r="E133" s="99"/>
+      <c r="F133" s="99"/>
+      <c r="G133" s="99"/>
+      <c r="H133" s="99"/>
+      <c r="I133" s="99"/>
+      <c r="J133" s="99"/>
+      <c r="K133" s="99"/>
+      <c r="L133" s="99"/>
+      <c r="M133" s="99"/>
       <c r="N133" s="13"/>
       <c r="O133" s="13"/>
       <c r="P133" s="13"/>
@@ -27602,21 +27602,21 @@
       <c r="AC133" s="13"/>
     </row>
     <row r="134" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="125">
+      <c r="A134" s="102">
         <v>43945</v>
       </c>
-      <c r="B134" s="122"/>
-      <c r="C134" s="122"/>
-      <c r="D134" s="122"/>
-      <c r="E134" s="122"/>
-      <c r="F134" s="122"/>
-      <c r="G134" s="122"/>
-      <c r="H134" s="122"/>
-      <c r="I134" s="122"/>
-      <c r="J134" s="122"/>
-      <c r="K134" s="122"/>
-      <c r="L134" s="122"/>
-      <c r="M134" s="122"/>
+      <c r="B134" s="99"/>
+      <c r="C134" s="99"/>
+      <c r="D134" s="99"/>
+      <c r="E134" s="99"/>
+      <c r="F134" s="99"/>
+      <c r="G134" s="99"/>
+      <c r="H134" s="99"/>
+      <c r="I134" s="99"/>
+      <c r="J134" s="99"/>
+      <c r="K134" s="99"/>
+      <c r="L134" s="99"/>
+      <c r="M134" s="99"/>
       <c r="N134" s="13"/>
       <c r="O134" s="13"/>
       <c r="P134" s="13"/>
@@ -27635,21 +27635,21 @@
       <c r="AC134" s="13"/>
     </row>
     <row r="135" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="125">
+      <c r="A135" s="102">
         <v>43945</v>
       </c>
-      <c r="B135" s="122"/>
-      <c r="C135" s="122"/>
-      <c r="D135" s="122"/>
-      <c r="E135" s="122"/>
-      <c r="F135" s="122"/>
-      <c r="G135" s="122"/>
-      <c r="H135" s="122"/>
-      <c r="I135" s="122"/>
-      <c r="J135" s="122"/>
-      <c r="K135" s="122"/>
-      <c r="L135" s="122"/>
-      <c r="M135" s="122"/>
+      <c r="B135" s="99"/>
+      <c r="C135" s="99"/>
+      <c r="D135" s="99"/>
+      <c r="E135" s="99"/>
+      <c r="F135" s="99"/>
+      <c r="G135" s="99"/>
+      <c r="H135" s="99"/>
+      <c r="I135" s="99"/>
+      <c r="J135" s="99"/>
+      <c r="K135" s="99"/>
+      <c r="L135" s="99"/>
+      <c r="M135" s="99"/>
       <c r="N135" s="13"/>
       <c r="O135" s="13"/>
       <c r="P135" s="13"/>
@@ -27668,21 +27668,21 @@
       <c r="AC135" s="13"/>
     </row>
     <row r="136" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="125">
+      <c r="A136" s="102">
         <v>43945</v>
       </c>
-      <c r="B136" s="122"/>
-      <c r="C136" s="122"/>
-      <c r="D136" s="122"/>
-      <c r="E136" s="122"/>
-      <c r="F136" s="122"/>
-      <c r="G136" s="122"/>
-      <c r="H136" s="122"/>
-      <c r="I136" s="122"/>
-      <c r="J136" s="122"/>
-      <c r="K136" s="122"/>
-      <c r="L136" s="122"/>
-      <c r="M136" s="122"/>
+      <c r="B136" s="99"/>
+      <c r="C136" s="99"/>
+      <c r="D136" s="99"/>
+      <c r="E136" s="99"/>
+      <c r="F136" s="99"/>
+      <c r="G136" s="99"/>
+      <c r="H136" s="99"/>
+      <c r="I136" s="99"/>
+      <c r="J136" s="99"/>
+      <c r="K136" s="99"/>
+      <c r="L136" s="99"/>
+      <c r="M136" s="99"/>
       <c r="N136" s="13"/>
       <c r="O136" s="13"/>
       <c r="P136" s="13"/>
@@ -27701,21 +27701,21 @@
       <c r="AC136" s="13"/>
     </row>
     <row r="137" spans="1:29" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="125">
+      <c r="A137" s="102">
         <v>43945</v>
       </c>
-      <c r="B137" s="122"/>
-      <c r="C137" s="122"/>
-      <c r="D137" s="122"/>
-      <c r="E137" s="122"/>
-      <c r="F137" s="122"/>
-      <c r="G137" s="122"/>
-      <c r="H137" s="122"/>
-      <c r="I137" s="122"/>
-      <c r="J137" s="122"/>
-      <c r="K137" s="122"/>
-      <c r="L137" s="122"/>
-      <c r="M137" s="122"/>
+      <c r="B137" s="99"/>
+      <c r="C137" s="99"/>
+      <c r="D137" s="99"/>
+      <c r="E137" s="99"/>
+      <c r="F137" s="99"/>
+      <c r="G137" s="99"/>
+      <c r="H137" s="99"/>
+      <c r="I137" s="99"/>
+      <c r="J137" s="99"/>
+      <c r="K137" s="99"/>
+      <c r="L137" s="99"/>
+      <c r="M137" s="99"/>
       <c r="N137" s="13"/>
       <c r="O137" s="13"/>
       <c r="P137" s="13"/>
@@ -54350,15 +54350,15 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="93"/>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="109"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="115"/>
       <c r="I1" s="94"/>
       <c r="J1" s="94"/>
       <c r="K1" s="94"/>
@@ -54375,15 +54375,15 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="109"/>
+      <c r="C2" s="115"/>
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="119"/>
-      <c r="F2" s="109"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
@@ -54406,13 +54406,13 @@
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="109"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="115"/>
       <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="121"/>
-      <c r="F3" s="109"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="115"/>
       <c r="G3" s="94"/>
       <c r="H3" s="94"/>
       <c r="I3" s="94"/>
@@ -54431,13 +54431,13 @@
       <c r="A4" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="113"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="88" t="s">
         <v>332</v>
       </c>
@@ -54923,7 +54923,7 @@
       <c r="D23" s="98"/>
       <c r="E23" s="98"/>
       <c r="F23" s="98"/>
-      <c r="G23" s="122" t="s">
+      <c r="G23" s="99" t="s">
         <v>319</v>
       </c>
       <c r="H23" s="97" t="s">
@@ -54985,19 +54985,19 @@
       <c r="A26" s="91" t="s">
         <v>251</v>
       </c>
-      <c r="B26" s="123" t="s">
+      <c r="B26" s="100" t="s">
         <v>320</v>
       </c>
       <c r="C26" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123" t="s">
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100" t="s">
         <v>327</v>
       </c>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123" t="s">
+      <c r="G26" s="100"/>
+      <c r="H26" s="100" t="s">
         <v>321</v>
       </c>
       <c r="I26" s="98"/>
@@ -55010,19 +55010,19 @@
       <c r="A27" s="91" t="s">
         <v>252</v>
       </c>
-      <c r="B27" s="123" t="s">
+      <c r="B27" s="100" t="s">
         <v>322</v>
       </c>
       <c r="C27" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123" t="s">
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100" t="s">
         <v>328</v>
       </c>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123" t="s">
+      <c r="G27" s="100"/>
+      <c r="H27" s="100" t="s">
         <v>323</v>
       </c>
       <c r="I27" s="92"/>
@@ -55035,19 +55035,19 @@
       <c r="A28" s="91" t="s">
         <v>253</v>
       </c>
-      <c r="B28" s="123" t="s">
+      <c r="B28" s="100" t="s">
         <v>324</v>
       </c>
       <c r="C28" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123" t="s">
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100" t="s">
         <v>329</v>
       </c>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123" t="s">
+      <c r="G28" s="100"/>
+      <c r="H28" s="100" t="s">
         <v>325</v>
       </c>
       <c r="I28" s="92"/>
